--- a/web/app/static/form.xlsx
+++ b/web/app/static/form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\SE\se_work\web\app\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3713717F-0453-49D2-9142-BCAB09F2DB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E9041-6EC0-487F-8710-A704FE664075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{940030A4-271B-4FA2-9EFE-00D0FC5C64B5}"/>
   </bookViews>
@@ -38,18 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
   <si>
-    <t>รหัสวิชา</t>
-  </si>
-  <si>
-    <t>ชื่อวิชา</t>
-  </si>
-  <si>
-    <t>เกรดที่ได้</t>
-  </si>
-  <si>
-    <t>หน่วยกิต</t>
-  </si>
-  <si>
     <t>ปี</t>
   </si>
   <si>
@@ -75,6 +63,18 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>รหัสวิชา เช่น 204111</t>
+  </si>
+  <si>
+    <t>ชื่อวิชา เช่น Fundamentals of Programming</t>
+  </si>
+  <si>
+    <t>หน่วยกิต เช่น 2, 3</t>
+  </si>
+  <si>
+    <t>เกรดที่ได้ เช่น 2.5, 3, s</t>
   </si>
 </sst>
 </file>
@@ -155,9 +155,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -169,6 +166,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,16 +486,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6148154A-6F96-426F-A3B9-5C2C09DEF51D}">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="71" customWidth="1"/>
   </cols>
   <sheetData>
@@ -511,203 +511,203 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
@@ -723,201 +723,201 @@
     <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="7" t="s">
-        <v>6</v>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
@@ -933,201 +933,201 @@
     <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="7" t="s">
-        <v>7</v>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="6"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="6"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="6"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="6"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="5"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
@@ -1143,201 +1143,201 @@
     <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="7" t="s">
-        <v>8</v>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="6"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="5"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="6"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="5"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="6"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="5"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="6"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="5"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="6"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="5"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="6"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="5"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="6"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="5"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="6"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="5"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="5"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
@@ -1352,638 +1352,638 @@
     </row>
     <row r="90" spans="1:7">
       <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="7" t="s">
-        <v>9</v>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="6"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="6"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="6"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="6"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="6"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="5"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="6"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="5"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="6"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="5"/>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="6"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="5"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="6"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
       <c r="F109" s="1"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
       <c r="F110" s="1"/>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="7" t="s">
-        <v>10</v>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="6"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="5"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="6"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="5"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="6"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="5"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="6"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="5"/>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="6"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="5"/>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="6"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="5"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="6"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="5"/>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="6"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="5"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="6"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="5"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
       <c r="F123" s="1"/>
     </row>
     <row r="124" spans="2:6">
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
       <c r="F124" s="1"/>
     </row>
     <row r="125" spans="2:6">
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
       <c r="F125" s="1"/>
     </row>
     <row r="126" spans="2:6">
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
       <c r="F126" s="1"/>
     </row>
     <row r="127" spans="2:6">
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
       <c r="F127" s="1"/>
     </row>
     <row r="128" spans="2:6">
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
       <c r="F128" s="1"/>
     </row>
     <row r="129" spans="2:6">
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
       <c r="F129" s="1"/>
     </row>
     <row r="130" spans="2:6">
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
       <c r="F130" s="1"/>
     </row>
     <row r="131" spans="2:6">
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
       <c r="F131" s="1"/>
     </row>
     <row r="132" spans="2:6">
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
       <c r="F132" s="1"/>
     </row>
     <row r="134" spans="2:6">
       <c r="B134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="135" spans="2:6">
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="7" t="s">
-        <v>11</v>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="2:6">
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="6"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="5"/>
     </row>
     <row r="137" spans="2:6">
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="6"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="5"/>
     </row>
     <row r="138" spans="2:6">
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="6"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="5"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="6"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="5"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="6"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="5"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="6"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="5"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="6"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="5"/>
     </row>
     <row r="143" spans="2:6">
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="6"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="5"/>
     </row>
     <row r="144" spans="2:6">
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="6"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="5"/>
     </row>
     <row r="145" spans="2:6">
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
       <c r="F145" s="1"/>
     </row>
     <row r="146" spans="2:6">
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
       <c r="F146" s="1"/>
     </row>
     <row r="147" spans="2:6">
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
       <c r="F147" s="1"/>
     </row>
     <row r="148" spans="2:6">
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
       <c r="F148" s="1"/>
     </row>
     <row r="149" spans="2:6">
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="2:6">
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
       <c r="F150" s="1"/>
     </row>
     <row r="151" spans="2:6">
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
       <c r="F151" s="1"/>
     </row>
     <row r="152" spans="2:6">
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
       <c r="F152" s="1"/>
     </row>
     <row r="153" spans="2:6">
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
       <c r="F153" s="1"/>
     </row>
     <row r="154" spans="2:6">
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
       <c r="F154" s="1"/>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="157" spans="2:6">
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="7" t="s">
-        <v>12</v>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="6"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="5"/>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="6"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="5"/>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="6"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="5"/>
     </row>
     <row r="161" spans="2:6">
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="6"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="5"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="6"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="5"/>
     </row>
     <row r="163" spans="2:6">
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="6"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="5"/>
     </row>
     <row r="164" spans="2:6">
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="6"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="5"/>
     </row>
     <row r="165" spans="2:6">
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="6"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="5"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="6"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="5"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
       <c r="F167" s="1"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
       <c r="F168" s="1"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
       <c r="F169" s="1"/>
     </row>
     <row r="170" spans="2:6">
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="2:6">
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
       <c r="F171" s="1"/>
     </row>
     <row r="172" spans="2:6">
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
       <c r="F172" s="1"/>
     </row>
     <row r="173" spans="2:6">
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
       <c r="F173" s="1"/>
     </row>
     <row r="174" spans="2:6">
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
       <c r="F174" s="1"/>
     </row>
     <row r="175" spans="2:6">
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
       <c r="F175" s="1"/>
     </row>
     <row r="176" spans="2:6">
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
       <c r="F176" s="1"/>
     </row>
   </sheetData>
